--- a/src/NFLYearlyTiers/2025/wr_ratings_2025.xlsx
+++ b/src/NFLYearlyTiers/2025/wr_ratings_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\CascadeProjects\fantasy-football-rankings\src\NFLYearlyTiers\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9CD83-BC87-4360-8833-728F10242672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAAEF5-683B-4553-8122-F29413BE0F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5ED3089C-66F4-4C89-BA68-D8ED5CDB45EE}"/>
   </bookViews>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81BA038-E5C3-4AF9-B864-10F1F2DF4655}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I61"/>
     </sheetView>
   </sheetViews>
@@ -727,8 +727,8 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <f>D2*10+E2*5+F2-G2*3-75</f>
-        <v>900</v>
+        <f>D2*10+E2*5+F2-G2*3</f>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,8 +759,8 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I61" si="1">D3*10+E3*5+F3-G3*3-75</f>
-        <v>875</v>
+        <f t="shared" ref="I3:I61" si="1">D3*10+E3*5+F3-G3*3</f>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>775</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>705</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>705</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>705</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>545</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>405</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>-135</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>-135</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>-135</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>-175</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>-215</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>-255</v>
+        <v>-180</v>
       </c>
     </row>
   </sheetData>
